--- a/data_year/zb/国民经济核算/资金流量表(实物交易)/国外部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(实物交易)/国外部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,23 +603,27 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567.963858678942</v>
+        <v>3352.28504136986</v>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>325.97782605</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-1695.69844513832</v>
+        <v>-16411.9654970849</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>7320.334215</v>
+      </c>
       <c r="J2" t="n">
-        <v>16.711688864</v>
+        <v>923.091795495</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -641,39 +645,43 @@
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>1022.298208672</v>
+        <v>1397.99882463</v>
       </c>
       <c r="AE2" t="n">
-        <v>567.963858678942</v>
+        <v>3352.28504136986</v>
       </c>
       <c r="AF2" t="n">
-        <v>1022.298208672</v>
+        <v>8718.333039630001</v>
       </c>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>325.97782605</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>755.2476371387691</v>
+        <v>3589.13995446882</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>363.019049992</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>-1436.16050888061</v>
+        <v>-9556.461205416161</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>740.46</v>
+        <v>6706.107452</v>
       </c>
       <c r="J3" t="n">
-        <v>24.6232473</v>
+        <v>1070.11797540636</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -695,37 +703,43 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>752.5522893</v>
+        <v>1541.729575596</v>
       </c>
       <c r="AE3" t="n">
-        <v>755.2476371387691</v>
+        <v>3589.13995446882</v>
       </c>
       <c r="AF3" t="n">
-        <v>752.5522893</v>
+        <v>8247.837027596001</v>
       </c>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>363.019049992</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1141.83586520465</v>
+        <v>3229.6585699448</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>287.129548078478</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>-2927.66182301058</v>
+        <v>-13863.4527295293</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>7609.34</v>
+      </c>
       <c r="J4" t="n">
-        <v>55.76645304</v>
+        <v>1077.26746999188</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -747,37 +761,43 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>634.8886920899999</v>
+        <v>1857.60589413788</v>
       </c>
       <c r="AE4" t="n">
-        <v>1141.83586520465</v>
+        <v>3229.6585699448</v>
       </c>
       <c r="AF4" t="n">
-        <v>634.8886920899999</v>
+        <v>9466.94589413788</v>
       </c>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>287.129548078478</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.78503018812</v>
+        <v>3292.2455609979</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>276.484032681663</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-3559.38969850914</v>
+        <v>-9380.497820773</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>7930.330668</v>
+      </c>
       <c r="J5" t="n">
-        <v>106.16030538</v>
+        <v>1101.96477977615</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -799,37 +819,43 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>1225.99735146</v>
+        <v>2378.76448709011</v>
       </c>
       <c r="AE5" t="n">
-        <v>1529.78503018812</v>
+        <v>3292.2455609979</v>
       </c>
       <c r="AF5" t="n">
-        <v>1225.99735146</v>
+        <v>10309.0951550901</v>
       </c>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>276.484032681663</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2013.42944467181</v>
+        <v>2525.23218675761</v>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>119.105368328169</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>-5700.36993941649</v>
+        <v>-17054.6521798846</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>8912.772804</v>
+      </c>
       <c r="J6" t="n">
-        <v>166.724465712</v>
+        <v>1837.86037603802</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -851,39 +877,45 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>1534.775549104</v>
+        <v>3955.747196</v>
       </c>
       <c r="AE6" t="n">
-        <v>2013.42944467181</v>
+        <v>2525.23218675761</v>
       </c>
       <c r="AF6" t="n">
-        <v>1534.775549104</v>
+        <v>12868.52</v>
       </c>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>119.105368328169</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2271.94189190433</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>2236.38542656</v>
+      </c>
+      <c r="C7" t="n">
+        <v>51.3</v>
+      </c>
       <c r="D7" t="n">
-        <v>340.377176799</v>
+        <v>31.7478936899877</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-11180.0212117045</v>
+        <v>-18969.7441144336</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>7698.053264</v>
+      </c>
       <c r="J7" t="n">
-        <v>273.362025937</v>
+        <v>2058.72978759796</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -905,41 +937,45 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>2943.750634924</v>
+        <v>4068.78645902498</v>
       </c>
       <c r="AE7" t="n">
-        <v>2271.94189190433</v>
+        <v>2236.38542656</v>
       </c>
       <c r="AF7" t="n">
-        <v>2943.750634924</v>
+        <v>11818.139723025</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>340.377176799</v>
+        <v>31.7478936899877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2517.28969076195</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>2049.9588063093</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37.2783241910231</v>
+      </c>
       <c r="D8" t="n">
-        <v>327.04150064</v>
+        <v>21.0113539682428</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-18802.5075242146</v>
+        <v>-13329.2033971236</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>8468.932500000001</v>
+      </c>
       <c r="J8" t="n">
-        <v>344.341342974</v>
+        <v>1784.53463449633</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -961,41 +997,45 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>4005.326718574</v>
+        <v>4696.13702785384</v>
       </c>
       <c r="AE8" t="n">
-        <v>2517.28969076195</v>
+        <v>2049.9588063093</v>
       </c>
       <c r="AF8" t="n">
-        <v>4005.326718574</v>
+        <v>13202.3478520449</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>327.04150064</v>
+        <v>21.0113539682428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3242.76100871487</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>1902.36603426357</v>
+      </c>
+      <c r="C9" t="n">
+        <v>46.9460455185637</v>
+      </c>
       <c r="D9" t="n">
-        <v>252.049788</v>
+        <v>15.404300869229</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-27091.6184587398</v>
+        <v>-13113.715144443</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>10715.1066</v>
+      </c>
       <c r="J9" t="n">
-        <v>519.591182388</v>
+        <v>1467.57373052861</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -1017,43 +1057,45 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>5827.93689852619</v>
+        <v>7180.55085029657</v>
       </c>
       <c r="AE9" t="n">
-        <v>3242.76100871487</v>
+        <v>1902.36603426357</v>
       </c>
       <c r="AF9" t="n">
-        <v>5827.93689852619</v>
+        <v>17942.6034958151</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>252.049788</v>
+        <v>15.404300869229</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3650.68337309473</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>1833.03698619403</v>
+      </c>
+      <c r="C10" t="n">
+        <v>137.041051984802</v>
+      </c>
       <c r="D10" t="n">
-        <v>230.60287929</v>
+        <v>20.0651646805716</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-29420.7926145218</v>
+        <v>-1934.2671069154</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>145.8471</v>
+        <v>8515.50163975286</v>
       </c>
       <c r="J10" t="n">
-        <v>634.542325697</v>
+        <v>1192.79668261307</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1075,41 +1117,45 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="n">
-        <v>6983.3466657</v>
+        <v>6475.12513610328</v>
       </c>
       <c r="AE10" t="n">
-        <v>3650.68337309473</v>
+        <v>1833.03698619403</v>
       </c>
       <c r="AF10" t="n">
-        <v>7129.1937657</v>
+        <v>15127.6678278409</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>230.60287929</v>
+        <v>20.0651646805716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2913.07548871549</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>1786.6187046388</v>
+      </c>
+      <c r="C11" t="n">
+        <v>123.433764486508</v>
+      </c>
       <c r="D11" t="n">
-        <v>1006.462</v>
+        <v>14.9851001250755</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-16890.024904214</v>
+        <v>-7093.25872590843</v>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>9286.95774013638</v>
+      </c>
       <c r="J11" t="n">
-        <v>629.1002619</v>
+        <v>982.89493701578</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1131,43 +1177,45 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>6765.51707766</v>
+        <v>8435.17973239335</v>
       </c>
       <c r="AE11" t="n">
-        <v>2913.07548871549</v>
+        <v>1786.6187046388</v>
       </c>
       <c r="AF11" t="n">
-        <v>6765.51707766</v>
+        <v>17845.5712370162</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>1006.462</v>
+        <v>14.9851001250755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3352.28504136986</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>2474.45882934337</v>
+      </c>
+      <c r="C12" t="n">
+        <v>196.807112141247</v>
+      </c>
       <c r="D12" t="n">
-        <v>325.97782605</v>
+        <v>11.4964967091277</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>-16411.9654970849</v>
+        <v>-16957.8451251309</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>7320.334215</v>
+        <v>8273.468681541761</v>
       </c>
       <c r="J12" t="n">
-        <v>923.091795495</v>
+        <v>1014.09739224915</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1189,43 +1237,45 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="n">
-        <v>1397.99882463</v>
+        <v>7447.00799865684</v>
       </c>
       <c r="AE12" t="n">
-        <v>3352.28504136986</v>
+        <v>2474.45882934337</v>
       </c>
       <c r="AF12" t="n">
-        <v>8718.333039630001</v>
+        <v>15917.2837923398</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>325.97782605</v>
+        <v>11.4964967091277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3589.13995446882</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>3144.84121640262</v>
+      </c>
+      <c r="C13" t="n">
+        <v>218.317458245558</v>
+      </c>
       <c r="D13" t="n">
-        <v>363.019049992</v>
+        <v>16.7689619932521</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>-9556.461205416161</v>
+        <v>-22740.4694336078</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>6706.107452</v>
+        <v>8016.79755842741</v>
       </c>
       <c r="J13" t="n">
-        <v>1070.11797540636</v>
+        <v>1103.92392467469</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1247,491 +1297,17 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>1541.729575596</v>
+        <v>11793.4012880054</v>
       </c>
       <c r="AE13" t="n">
-        <v>3589.13995446882</v>
+        <v>3144.84121640262</v>
       </c>
       <c r="AF13" t="n">
-        <v>8247.837027596001</v>
+        <v>20028.5163046784</v>
       </c>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>363.019049992</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3229.6585699448</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>287.129548078478</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>-13863.4527295293</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>7609.34</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1077.26746999188</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="n">
-        <v>1857.60589413788</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>3229.6585699448</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9466.94589413788</v>
-      </c>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>287.129548078478</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>3292.2455609979</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>276.484032681663</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>-9380.497820773</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>7930.330668</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1101.96477977615</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="n">
-        <v>2378.76448709011</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>3292.2455609979</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>10309.0951550901</v>
-      </c>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>276.484032681663</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2525.23218675761</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>119.105368328169</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>-17054.6521798846</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>8912.772804</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1837.86037603802</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="n">
-        <v>3955.747196</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2525.23218675761</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>12868.52</v>
-      </c>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>119.105368328169</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2236.38542656</v>
-      </c>
-      <c r="C17" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31.7478936899877</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>-18969.7441144336</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>7698.053264</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2058.72978759796</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="n">
-        <v>4068.78645902498</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>2236.38542656</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>11818.139723025</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>31.7478936899877</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2049.9588063093</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37.2783241910231</v>
-      </c>
-      <c r="D18" t="n">
-        <v>21.0113539682428</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>-13329.2033971236</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>8468.932500000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1784.53463449633</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="n">
-        <v>4696.13702785384</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2049.9588063093</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>13202.3478520449</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>21.0113539682428</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1902.36603426357</v>
-      </c>
-      <c r="C19" t="n">
-        <v>46.9460455185637</v>
-      </c>
-      <c r="D19" t="n">
-        <v>15.404300869229</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>-13113.715144443</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>10715.1066</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1467.57373052861</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="n">
-        <v>7180.55085029657</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1902.36603426357</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>17942.6034958151</v>
-      </c>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>15.404300869229</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1833.03698619403</v>
-      </c>
-      <c r="C20" t="n">
-        <v>137.041051984802</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20.0651646805716</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>-1934.2671069154</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>8515.50163975286</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1192.79668261307</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="n">
-        <v>6475.12513610328</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1833.03698619403</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15127.6678278409</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>20.0651646805716</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1786.6187046388</v>
-      </c>
-      <c r="C21" t="n">
-        <v>123.433764486508</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.9851001250755</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>-7093.25872590843</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>9286.95774013638</v>
-      </c>
-      <c r="J21" t="n">
-        <v>982.89493701578</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="n">
-        <v>8435.17973239335</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1786.6187046388</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>17845.5712370162</v>
-      </c>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="n">
-        <v>14.9851001250755</v>
+        <v>16.7689619932521</v>
       </c>
     </row>
   </sheetData>
